--- a/JSP/An/DB/DB TEST_LM1_20190921 (리눅스마스터 1급).xlsx
+++ b/JSP/An/DB/DB TEST_LM1_20190921 (리눅스마스터 1급).xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dksdu\Downloads\YoungWoo Ahn (Japen_Java)\TeamProject01\DB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E043A-DF9F-4590-93A7-53F479E63D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t>1. 다음 중 2차적 저작물 소스 코드 공개에 대한 정책이 나머지와 다른 것은?</t>
   </si>
@@ -1515,8 +1510,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>실무의 이해</t>
     </r>
@@ -1531,8 +1524,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>시스템 관리</t>
     </r>
@@ -1547,74 +1538,343 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
       </rPr>
       <t>및 서비스의 활용</t>
     </r>
   </si>
   <si>
     <t>test_subject</t>
+  </si>
+  <si>
+    <t>test_imageIs</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="굴림"/>
       <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1622,50 +1882,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1931,34 +2466,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G76" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView topLeftCell="A70" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="4" customWidth="1"/>
-    <col min="2" max="2" width="161.25" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="75.5" customWidth="1"/>
-    <col min="5" max="5" width="84.5" customWidth="1"/>
-    <col min="6" max="6" width="88.625" customWidth="1"/>
-    <col min="7" max="7" width="86.625" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="161.25500488" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="16.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="75.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="84.50499725" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="88.62999725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="86.62999725" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" width="24.00499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="0" t="s">
         <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>488</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>490</v>
@@ -1972,12 +2507,12 @@
       <c r="G1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1996,12 +2531,12 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2020,19 +2555,19 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:8">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -2046,19 +2581,19 @@
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:8">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -2072,19 +2607,19 @@
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:8">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -2098,12 +2633,12 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:8">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2122,12 +2657,12 @@
       <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2146,19 +2681,19 @@
       <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:8">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
@@ -2172,12 +2707,12 @@
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="10" spans="1:8">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2196,19 +2731,19 @@
       <c r="G10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:8">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>47</v>
@@ -2222,12 +2757,12 @@
       <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:8">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2246,12 +2781,12 @@
       <c r="G12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:8">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2270,19 +2805,19 @@
       <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:8">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>486</v>
@@ -2296,12 +2831,12 @@
       <c r="G14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:8">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2320,12 +2855,12 @@
       <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:8">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2344,12 +2879,12 @@
       <c r="G16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2368,12 +2903,12 @@
       <c r="G17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2392,12 +2927,12 @@
       <c r="G18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:8">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2416,12 +2951,12 @@
       <c r="G19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:8">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2440,19 +2975,19 @@
       <c r="G20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:8">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>96</v>
@@ -2466,19 +3001,19 @@
       <c r="G21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:8">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>101</v>
@@ -2492,12 +3027,12 @@
       <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:8">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2516,19 +3051,19 @@
       <c r="G23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:8">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>111</v>
@@ -2542,12 +3077,12 @@
       <c r="G24" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:8">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2566,12 +3101,12 @@
       <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:8">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2590,19 +3125,19 @@
       <c r="G26" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:8">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>126</v>
@@ -2616,19 +3151,19 @@
       <c r="G27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:8">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>131</v>
@@ -2642,12 +3177,12 @@
       <c r="G28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:8">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2666,12 +3201,12 @@
       <c r="G29" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:8">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2690,19 +3225,19 @@
       <c r="G30" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:8">
+      <c r="A31" s="0">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>146</v>
@@ -2716,19 +3251,19 @@
       <c r="G31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:8">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>151</v>
@@ -2742,12 +3277,12 @@
       <c r="G32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="33" spans="1:8">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2766,12 +3301,12 @@
       <c r="G33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:8">
+      <c r="A34" s="0">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2790,12 +3325,12 @@
       <c r="G34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+    <row r="35" spans="1:8">
+      <c r="A35" s="0">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2814,12 +3349,12 @@
       <c r="G35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:8">
+      <c r="A36" s="0">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2838,19 +3373,19 @@
       <c r="G36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    <row r="37" spans="1:8">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>176</v>
@@ -2864,12 +3399,12 @@
       <c r="G37" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="38" spans="1:8">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2888,12 +3423,12 @@
       <c r="G38" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+    <row r="39" spans="1:8">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2912,12 +3447,12 @@
       <c r="G39" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:8">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2936,12 +3471,12 @@
       <c r="G40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+    <row r="41" spans="1:8">
+      <c r="A41" s="0">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2960,12 +3495,12 @@
       <c r="G41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+    <row r="42" spans="1:8">
+      <c r="A42" s="0">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2984,19 +3519,19 @@
       <c r="G42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+    <row r="43" spans="1:8">
+      <c r="A43" s="0">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>206</v>
@@ -3010,19 +3545,19 @@
       <c r="G43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+    <row r="44" spans="1:8">
+      <c r="A44" s="0">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>211</v>
@@ -3036,19 +3571,19 @@
       <c r="G44" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    <row r="45" spans="1:8">
+      <c r="A45" s="0">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>216</v>
@@ -3062,12 +3597,12 @@
       <c r="G45" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:8">
+      <c r="A46" s="0">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3086,19 +3621,19 @@
       <c r="G46" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+    <row r="47" spans="1:8">
+      <c r="A47" s="0">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>226</v>
@@ -3112,19 +3647,19 @@
       <c r="G47" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+    <row r="48" spans="1:8">
+      <c r="A48" s="0">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>230</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>216</v>
@@ -3138,12 +3673,12 @@
       <c r="G48" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+    <row r="49" spans="1:8">
+      <c r="A49" s="0">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3162,12 +3697,12 @@
       <c r="G49" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+    <row r="50" spans="1:8">
+      <c r="A50" s="0">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3186,19 +3721,19 @@
       <c r="G50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+    <row r="51" spans="1:8">
+      <c r="A51" s="0">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>238</v>
@@ -3212,12 +3747,12 @@
       <c r="G51" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+    <row r="52" spans="1:8">
+      <c r="A52" s="0">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3236,19 +3771,19 @@
       <c r="G52" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="53" spans="1:8">
+      <c r="A53" s="0">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>248</v>
@@ -3262,19 +3797,19 @@
       <c r="G53" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+    <row r="54" spans="1:8">
+      <c r="A54" s="0">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>253</v>
@@ -3288,19 +3823,19 @@
       <c r="G54" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+    <row r="55" spans="1:8">
+      <c r="A55" s="0">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>258</v>
@@ -3314,12 +3849,12 @@
       <c r="G55" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+    <row r="56" spans="1:8">
+      <c r="A56" s="0">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3338,19 +3873,19 @@
       <c r="G56" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+    <row r="57" spans="1:8">
+      <c r="A57" s="0">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>268</v>
@@ -3364,19 +3899,19 @@
       <c r="G57" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+    <row r="58" spans="1:8">
+      <c r="A58" s="0">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>272</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>273</v>
@@ -3390,19 +3925,19 @@
       <c r="G58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+    <row r="59" spans="1:8">
+      <c r="A59" s="0">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>278</v>
@@ -3416,19 +3951,19 @@
       <c r="G59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H59" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+    <row r="60" spans="1:8">
+      <c r="A60" s="0">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>282</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>283</v>
@@ -3442,12 +3977,12 @@
       <c r="G60" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H60" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+    <row r="61" spans="1:8">
+      <c r="A61" s="0">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3466,19 +4001,19 @@
       <c r="G61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H61" s="2" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+    <row r="62" spans="1:8">
+      <c r="A62" s="0">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>293</v>
@@ -3492,12 +4027,12 @@
       <c r="G62" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+    <row r="63" spans="1:8">
+      <c r="A63" s="0">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -3516,12 +4051,12 @@
       <c r="G63" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+    <row r="64" spans="1:8">
+      <c r="A64" s="0">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -3540,19 +4075,19 @@
       <c r="G64" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H64" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+    <row r="65" spans="1:8">
+      <c r="A65" s="0">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>308</v>
@@ -3566,19 +4101,19 @@
       <c r="G65" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+    <row r="66" spans="1:8">
+      <c r="A66" s="0">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>313</v>
@@ -3592,12 +4127,12 @@
       <c r="G66" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+    <row r="67" spans="1:8">
+      <c r="A67" s="0">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3616,19 +4151,19 @@
       <c r="G67" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+    <row r="68" spans="1:8">
+      <c r="A68" s="0">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>323</v>
@@ -3642,12 +4177,12 @@
       <c r="G68" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+    <row r="69" spans="1:8">
+      <c r="A69" s="0">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -3666,19 +4201,19 @@
       <c r="G69" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+    <row r="70" spans="1:8">
+      <c r="A70" s="0">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>333</v>
@@ -3692,19 +4227,19 @@
       <c r="G70" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+    <row r="71" spans="1:8">
+      <c r="A71" s="0">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>338</v>
@@ -3718,19 +4253,19 @@
       <c r="G71" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+    <row r="72" spans="1:8">
+      <c r="A72" s="0">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>343</v>
@@ -3744,19 +4279,19 @@
       <c r="G72" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+    <row r="73" spans="1:8">
+      <c r="A73" s="0">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>348</v>
@@ -3770,19 +4305,19 @@
       <c r="G73" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+    <row r="74" spans="1:8">
+      <c r="A74" s="0">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>353</v>
@@ -3796,19 +4331,19 @@
       <c r="G74" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+    <row r="75" spans="1:8">
+      <c r="A75" s="0">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>358</v>
@@ -3822,19 +4357,19 @@
       <c r="G75" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+    <row r="76" spans="1:8">
+      <c r="A76" s="0">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>363</v>
@@ -3848,19 +4383,19 @@
       <c r="G76" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+    <row r="77" spans="1:8">
+      <c r="A77" s="0">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>368</v>
@@ -3874,19 +4409,19 @@
       <c r="G77" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+    <row r="78" spans="1:8">
+      <c r="A78" s="0">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>373</v>
@@ -3900,19 +4435,19 @@
       <c r="G78" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+    <row r="79" spans="1:8">
+      <c r="A79" s="0">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>378</v>
@@ -3926,19 +4461,19 @@
       <c r="G79" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+    <row r="80" spans="1:8">
+      <c r="A80" s="0">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>383</v>
@@ -3952,12 +4487,12 @@
       <c r="G80" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+    <row r="81" spans="1:8">
+      <c r="A81" s="0">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -3976,19 +4511,19 @@
       <c r="G81" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+    <row r="82" spans="1:8">
+      <c r="A82" s="0">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>393</v>
@@ -4002,19 +4537,19 @@
       <c r="G82" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+    <row r="83" spans="1:8">
+      <c r="A83" s="0">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>398</v>
@@ -4028,12 +4563,12 @@
       <c r="G83" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+    <row r="84" spans="1:8">
+      <c r="A84" s="0">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4052,12 +4587,12 @@
       <c r="G84" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+    <row r="85" spans="1:8">
+      <c r="A85" s="0">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4076,12 +4611,12 @@
       <c r="G85" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+    <row r="86" spans="1:8">
+      <c r="A86" s="0">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -4100,19 +4635,19 @@
       <c r="G86" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+    <row r="87" spans="1:8">
+      <c r="A87" s="0">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>418</v>
@@ -4126,19 +4661,19 @@
       <c r="G87" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+    <row r="88" spans="1:8">
+      <c r="A88" s="0">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>423</v>
@@ -4152,12 +4687,12 @@
       <c r="G88" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+    <row r="89" spans="1:8">
+      <c r="A89" s="0">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4176,19 +4711,19 @@
       <c r="G89" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+    <row r="90" spans="1:8">
+      <c r="A90" s="0">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>432</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>433</v>
@@ -4202,19 +4737,19 @@
       <c r="G90" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+    <row r="91" spans="1:8">
+      <c r="A91" s="0">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>437</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>438</v>
@@ -4228,19 +4763,19 @@
       <c r="G91" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+    <row r="92" spans="1:8">
+      <c r="A92" s="0">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>442</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>438</v>
@@ -4254,12 +4789,12 @@
       <c r="G92" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+    <row r="93" spans="1:8">
+      <c r="A93" s="0">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -4278,19 +4813,19 @@
       <c r="G93" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+    <row r="94" spans="1:8">
+      <c r="A94" s="0">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>449</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>450</v>
@@ -4304,19 +4839,19 @@
       <c r="G94" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+    <row r="95" spans="1:8">
+      <c r="A95" s="0">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>455</v>
@@ -4330,19 +4865,19 @@
       <c r="G95" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+    <row r="96" spans="1:8">
+      <c r="A96" s="0">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>456</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>457</v>
@@ -4356,19 +4891,19 @@
       <c r="G96" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+    <row r="97" spans="1:8">
+      <c r="A97" s="0">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>461</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>462</v>
@@ -4382,12 +4917,12 @@
       <c r="G97" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+    <row r="98" spans="1:8">
+      <c r="A98" s="0">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4406,19 +4941,19 @@
       <c r="G98" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+    <row r="99" spans="1:8">
+      <c r="A99" s="0">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>472</v>
@@ -4432,19 +4967,19 @@
       <c r="G99" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+    <row r="100" spans="1:8">
+      <c r="A100" s="0">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>476</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>477</v>
@@ -4458,19 +4993,19 @@
       <c r="G100" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+    <row r="101" spans="1:8">
+      <c r="A101" s="0">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>499</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>482</v>
@@ -4484,41 +5019,45 @@
       <c r="G101" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="2" t="s">
         <v>496</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>